--- a/results/Dataset_S4_EWCE_level2.xlsx
+++ b/results/Dataset_S4_EWCE_level2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/work/paper/submitted/FTD_atrophy_genexpr/BrainComsRevision/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EFD16D-3536-2C4E-AA8E-42206E28EC81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC2338-9444-7248-ADBC-E9AC2B901F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{8DB58CE0-988B-FE49-B466-1D71BE6CE451}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="298">
   <si>
     <t>CellType</t>
   </si>
@@ -645,9 +645,6 @@
   </si>
   <si>
     <t>Class</t>
-  </si>
-  <si>
-    <t>ClusterName</t>
   </si>
   <si>
     <t>Description</t>
@@ -1451,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297A2D2D-B6A7-834F-8327-CBB2E6780923}">
   <dimension ref="A1:R191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:XFD181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1460,10 +1457,10 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -1478,13 +1475,13 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
-        <v>294</v>
+      <c r="H1" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
@@ -1498,45 +1495,43 @@
         <v>190</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D3" s="3">
         <v>0.64641999999999999</v>
@@ -1563,19 +1558,17 @@
         <v>0.61375999999999997</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="3">
         <v>0.99999000000000005</v>
@@ -1602,19 +1595,17 @@
         <v>0.32253260869565198</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1641,19 +1632,17 @@
         <v>9.7484210526315798E-2</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="3">
         <v>0.99531000000000003</v>
@@ -1680,19 +1669,17 @@
         <v>0.238827272727273</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="3">
         <v>0.99983999999999995</v>
@@ -1719,19 +1706,17 @@
         <v>0.1172745</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="3">
         <v>0.99977000000000005</v>
@@ -1758,19 +1743,17 @@
         <v>0.78969413793103405</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="R8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="3">
         <v>0.99995999999999996</v>
@@ -1797,19 +1780,17 @@
         <v>1</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="3">
         <v>0.99972000000000005</v>
@@ -1836,19 +1817,17 @@
         <v>1</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="3">
         <v>0.98951</v>
@@ -1875,19 +1854,17 @@
         <v>0.65299499999999999</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D12" s="3">
         <v>0.97011000000000003</v>
@@ -1914,19 +1891,17 @@
         <v>1</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="R12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D13" s="3">
         <v>0.62085000000000001</v>
@@ -1953,19 +1928,17 @@
         <v>1</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="R13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D14" s="3">
         <v>0.78076000000000001</v>
@@ -1992,19 +1965,17 @@
         <v>1</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="R14" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D15" s="3">
         <v>0.99253000000000002</v>
@@ -2031,19 +2002,17 @@
         <v>1</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="R15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D16" s="3">
         <v>0.83516000000000001</v>
@@ -2070,19 +2039,17 @@
         <v>1</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="R16" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="3">
         <v>0.16899</v>
@@ -2109,19 +2076,17 @@
         <v>1</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="R17" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3">
         <v>0.82335999999999998</v>
@@ -2148,19 +2113,17 @@
         <v>1</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="R18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19" s="3">
         <v>0.45487</v>
@@ -2187,19 +2150,17 @@
         <v>1</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="R19" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="3">
         <v>6.062E-2</v>
@@ -2226,19 +2187,17 @@
         <v>1</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="R20" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="3">
         <v>0.42331000000000002</v>
@@ -2265,19 +2224,17 @@
         <v>1</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="R21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="3">
         <v>0.27999000000000002</v>
@@ -2304,19 +2261,17 @@
         <v>1</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="R22" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="3">
         <v>0.28037000000000001</v>
@@ -2343,19 +2298,17 @@
         <v>1</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="R23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="3">
         <v>0.34167999999999998</v>
@@ -2382,19 +2335,17 @@
         <v>1</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="R24" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="3">
         <v>0.46012999999999998</v>
@@ -2421,19 +2372,17 @@
         <v>1</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="R25" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="3">
         <v>0.43074000000000001</v>
@@ -2460,19 +2409,17 @@
         <v>1</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="R26" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="3">
         <v>2.034E-2</v>
@@ -2499,19 +2446,17 @@
         <v>1</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="R27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D28" s="3">
         <v>3.9039999999999998E-2</v>
@@ -2538,19 +2483,17 @@
         <v>1</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="R28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="3">
         <v>0.15479000000000001</v>
@@ -2577,19 +2520,17 @@
         <v>1</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="3">
         <v>1.719E-2</v>
@@ -2616,19 +2557,17 @@
         <v>1</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="R30" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="3">
         <v>0.20760000000000001</v>
@@ -2655,19 +2594,17 @@
         <v>1</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="R31" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="3">
         <v>4.6399999999999997E-2</v>
@@ -2694,19 +2631,17 @@
         <v>1</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="R32" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="3">
         <v>5.1999999999999998E-2</v>
@@ -2733,19 +2668,17 @@
         <v>1</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="R33" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="3">
         <v>0.26543</v>
@@ -2772,19 +2705,17 @@
         <v>1</v>
       </c>
       <c r="O34" s="1"/>
-      <c r="R34" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3">
         <v>5.1429999999999997E-2</v>
@@ -2811,19 +2742,17 @@
         <v>1</v>
       </c>
       <c r="O35" s="1"/>
-      <c r="R35" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" s="3">
         <v>4.0120000000000003E-2</v>
@@ -2850,19 +2779,17 @@
         <v>1</v>
       </c>
       <c r="O36" s="1"/>
-      <c r="R36" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="3">
         <v>0.12975999999999999</v>
@@ -2889,19 +2816,17 @@
         <v>1</v>
       </c>
       <c r="O37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="3">
         <v>0.26169999999999999</v>
@@ -2928,19 +2853,17 @@
         <v>1</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="R38" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="3">
         <v>0.11142000000000001</v>
@@ -2967,19 +2890,17 @@
         <v>1</v>
       </c>
       <c r="O39" s="1"/>
-      <c r="R39" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="3">
         <v>7.918E-2</v>
@@ -3006,19 +2927,17 @@
         <v>1</v>
       </c>
       <c r="O40" s="1"/>
-      <c r="R40" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="3">
         <v>9.5589999999999994E-2</v>
@@ -3045,19 +2964,17 @@
         <v>1</v>
       </c>
       <c r="O41" s="1"/>
-      <c r="R41" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="3">
         <v>1.18E-2</v>
@@ -3084,19 +3001,17 @@
         <v>1</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="R42" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="3">
         <v>7.4349999999999999E-2</v>
@@ -3123,19 +3038,17 @@
         <v>1</v>
       </c>
       <c r="O43" s="1"/>
-      <c r="R43" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" s="3">
         <v>4.2770000000000002E-2</v>
@@ -3162,19 +3075,17 @@
         <v>1</v>
       </c>
       <c r="O44" s="1"/>
-      <c r="R44" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="3">
         <v>0.14854999999999999</v>
@@ -3201,19 +3112,17 @@
         <v>1</v>
       </c>
       <c r="O45" s="1"/>
-      <c r="R45" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="3">
         <v>0.12687999999999999</v>
@@ -3240,19 +3149,17 @@
         <v>1</v>
       </c>
       <c r="O46" s="1"/>
-      <c r="R46" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="3">
         <v>2.4510000000000001E-2</v>
@@ -3279,19 +3186,17 @@
         <v>1</v>
       </c>
       <c r="O47" s="1"/>
-      <c r="R47" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="3">
         <v>0.24179999999999999</v>
@@ -3318,19 +3223,17 @@
         <v>1</v>
       </c>
       <c r="O48" s="1"/>
-      <c r="R48" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D49" s="3">
         <v>1.17E-3</v>
@@ -3357,19 +3260,17 @@
         <v>1</v>
       </c>
       <c r="O49" s="1"/>
-      <c r="R49" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D50" s="6">
         <v>4.0000000000000003E-5</v>
@@ -3396,19 +3297,17 @@
         <v>1</v>
       </c>
       <c r="O50" s="1"/>
-      <c r="R50" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="3">
         <v>0.10272000000000001</v>
@@ -3435,19 +3334,17 @@
         <v>1</v>
       </c>
       <c r="O51" s="1"/>
-      <c r="R51" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" s="3">
         <v>4.9860000000000002E-2</v>
@@ -3474,19 +3371,17 @@
         <v>1</v>
       </c>
       <c r="O52" s="1"/>
-      <c r="R52" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="3">
         <v>4.224E-2</v>
@@ -3513,19 +3408,17 @@
         <v>1</v>
       </c>
       <c r="O53" s="1"/>
-      <c r="R53" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54" s="3">
         <v>6.3930000000000001E-2</v>
@@ -3552,19 +3445,17 @@
         <v>1</v>
       </c>
       <c r="O54" s="1"/>
-      <c r="R54" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" s="3">
         <v>0.69011999999999996</v>
@@ -3591,19 +3482,17 @@
         <v>1</v>
       </c>
       <c r="O55" s="1"/>
-      <c r="R55" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D56" s="3">
         <v>0.60458999999999996</v>
@@ -3630,19 +3519,17 @@
         <v>1</v>
       </c>
       <c r="O56" s="1"/>
-      <c r="R56" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" s="3">
         <v>0.80530999999999997</v>
@@ -3669,19 +3556,17 @@
         <v>1</v>
       </c>
       <c r="O57" s="1"/>
-      <c r="R57" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" s="3">
         <v>0.79178000000000004</v>
@@ -3708,19 +3593,17 @@
         <v>1</v>
       </c>
       <c r="O58" s="1"/>
-      <c r="R58" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" s="3">
         <v>0.75136000000000003</v>
@@ -3747,19 +3630,17 @@
         <v>1</v>
       </c>
       <c r="O59" s="1"/>
-      <c r="R59" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D60" s="3">
         <v>0.78769</v>
@@ -3786,19 +3667,17 @@
         <v>1</v>
       </c>
       <c r="O60" s="1"/>
-      <c r="R60" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D61" s="3">
         <v>0.83989000000000003</v>
@@ -3825,19 +3704,17 @@
         <v>1</v>
       </c>
       <c r="O61" s="1"/>
-      <c r="R61" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D62" s="6">
         <v>5.0000000000000002E-5</v>
@@ -3864,19 +3741,17 @@
         <v>1</v>
       </c>
       <c r="O62" s="1"/>
-      <c r="R62" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D63" s="3">
         <v>5.6910000000000002E-2</v>
@@ -3903,19 +3778,17 @@
         <v>1</v>
       </c>
       <c r="O63" s="1"/>
-      <c r="R63" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D64" s="3">
         <v>2.7789999999999999E-2</v>
@@ -3942,19 +3815,17 @@
         <v>1</v>
       </c>
       <c r="O64" s="1"/>
-      <c r="R64" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D65" s="3">
         <v>2.2000000000000001E-4</v>
@@ -3981,19 +3852,17 @@
         <v>1</v>
       </c>
       <c r="O65" s="1"/>
-      <c r="R65" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D66" s="3">
         <v>9.2899999999999996E-3</v>
@@ -4020,19 +3889,17 @@
         <v>1</v>
       </c>
       <c r="O66" s="1"/>
-      <c r="R66" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D67" s="3">
         <v>2.2460000000000001E-2</v>
@@ -4059,19 +3926,17 @@
         <v>1</v>
       </c>
       <c r="O67" s="1"/>
-      <c r="R67" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D68" s="3">
         <v>8.3800000000000003E-3</v>
@@ -4098,19 +3963,17 @@
         <v>1</v>
       </c>
       <c r="O68" s="1"/>
-      <c r="R68" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D69" s="3">
         <v>5.7110000000000001E-2</v>
@@ -4137,19 +4000,17 @@
         <v>1</v>
       </c>
       <c r="O69" s="1"/>
-      <c r="R69" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D70" s="3">
         <v>3.3779999999999998E-2</v>
@@ -4176,19 +4037,17 @@
         <v>1</v>
       </c>
       <c r="O70" s="1"/>
-      <c r="R70" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D71" s="3">
         <v>3.007E-2</v>
@@ -4215,19 +4074,17 @@
         <v>1</v>
       </c>
       <c r="O71" s="1"/>
-      <c r="R71" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D72" s="3">
         <v>3.3640000000000003E-2</v>
@@ -4254,19 +4111,17 @@
         <v>1</v>
       </c>
       <c r="O72" s="1"/>
-      <c r="R72" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D73" s="3">
         <v>6.0940000000000001E-2</v>
@@ -4293,19 +4148,17 @@
         <v>1</v>
       </c>
       <c r="O73" s="1"/>
-      <c r="R73" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="3">
         <v>5.2560000000000003E-2</v>
@@ -4332,19 +4185,17 @@
         <v>1</v>
       </c>
       <c r="O74" s="1"/>
-      <c r="R74" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="3">
         <v>9.6210000000000004E-2</v>
@@ -4371,19 +4222,17 @@
         <v>1</v>
       </c>
       <c r="O75" s="1"/>
-      <c r="R75" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="3">
         <v>0.29671999999999998</v>
@@ -4410,19 +4259,17 @@
         <v>1</v>
       </c>
       <c r="O76" s="1"/>
-      <c r="R76" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="3">
         <v>3.2070000000000001E-2</v>
@@ -4449,19 +4296,17 @@
         <v>1</v>
       </c>
       <c r="O77" s="1"/>
-      <c r="R77" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="3">
         <v>9.6799999999999994E-3</v>
@@ -4488,19 +4333,17 @@
         <v>1</v>
       </c>
       <c r="O78" s="1"/>
-      <c r="R78" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="3">
         <v>0.11446000000000001</v>
@@ -4527,19 +4370,17 @@
         <v>1</v>
       </c>
       <c r="O79" s="1"/>
-      <c r="R79" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="3">
         <v>0.28883999999999999</v>
@@ -4566,19 +4407,17 @@
         <v>1</v>
       </c>
       <c r="O80" s="1"/>
-      <c r="R80" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="3">
         <v>0.17394000000000001</v>
@@ -4605,19 +4444,17 @@
         <v>1</v>
       </c>
       <c r="O81" s="1"/>
-      <c r="R81" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="3">
         <v>0.63449999999999995</v>
@@ -4644,19 +4481,17 @@
         <v>0.86914800000000003</v>
       </c>
       <c r="O82" s="1"/>
-      <c r="R82" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="3">
         <v>5.3260000000000002E-2</v>
@@ -4683,19 +4518,17 @@
         <v>1</v>
       </c>
       <c r="O83" s="1"/>
-      <c r="R83" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="3">
         <v>4.7219999999999998E-2</v>
@@ -4722,19 +4555,17 @@
         <v>1</v>
       </c>
       <c r="O84" s="1"/>
-      <c r="R84" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D85" s="3">
         <v>1.209E-2</v>
@@ -4761,19 +4592,17 @@
         <v>1</v>
       </c>
       <c r="O85" s="1"/>
-      <c r="R85" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" s="3">
         <v>0.52381</v>
@@ -4800,19 +4629,17 @@
         <v>1</v>
       </c>
       <c r="O86" s="1"/>
-      <c r="R86" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D87" s="3">
         <v>0.20730000000000001</v>
@@ -4839,19 +4666,17 @@
         <v>1</v>
       </c>
       <c r="O87" s="1"/>
-      <c r="R87" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D88" s="3">
         <v>7.8719999999999998E-2</v>
@@ -4878,19 +4703,17 @@
         <v>1</v>
       </c>
       <c r="O88" s="1"/>
-      <c r="R88" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D89" s="3">
         <v>0.44964999999999999</v>
@@ -4917,19 +4740,17 @@
         <v>1</v>
       </c>
       <c r="O89" s="1"/>
-      <c r="R89" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D90" s="3">
         <v>0.55747000000000002</v>
@@ -4956,19 +4777,17 @@
         <v>1</v>
       </c>
       <c r="O90" s="1"/>
-      <c r="R90" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D91" s="3">
         <v>0.44703999999999999</v>
@@ -4995,19 +4814,17 @@
         <v>1</v>
       </c>
       <c r="O91" s="1"/>
-      <c r="R91" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D92" s="3">
         <v>0.99887999999999999</v>
@@ -5034,19 +4851,17 @@
         <v>3.1984615384615402E-3</v>
       </c>
       <c r="O92" s="1"/>
-      <c r="R92" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D93" s="3">
         <v>0.40726000000000001</v>
@@ -5073,19 +4888,17 @@
         <v>1</v>
       </c>
       <c r="O93" s="1"/>
-      <c r="R93" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D94" s="3">
         <v>0.99973000000000001</v>
@@ -5112,19 +4925,17 @@
         <v>5.15025E-2</v>
       </c>
       <c r="O94" s="1"/>
-      <c r="R94" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D95" s="3">
         <v>0.99997999999999998</v>
@@ -5151,19 +4962,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O95" s="1"/>
-      <c r="R95" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D96" s="3">
         <v>0.47844999999999999</v>
@@ -5190,19 +4999,17 @@
         <v>1</v>
       </c>
       <c r="O96" s="1"/>
-      <c r="R96" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D97" s="3">
         <v>0.47469</v>
@@ -5229,19 +5036,17 @@
         <v>1</v>
       </c>
       <c r="O97" s="1"/>
-      <c r="R97" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D98" s="3">
         <v>0.98221999999999998</v>
@@ -5268,19 +5073,17 @@
         <v>7.3042941176470602E-2</v>
       </c>
       <c r="O98" s="1"/>
-      <c r="R98" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D99" s="3">
         <v>0.42519000000000001</v>
@@ -5307,19 +5110,17 @@
         <v>1</v>
       </c>
       <c r="O99" s="1"/>
-      <c r="R99" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D100" s="3">
         <v>0.10847999999999999</v>
@@ -5346,19 +5147,17 @@
         <v>1</v>
       </c>
       <c r="O100" s="1"/>
-      <c r="R100" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D101" s="3">
         <v>0.41550999999999999</v>
@@ -5385,19 +5184,17 @@
         <v>1</v>
       </c>
       <c r="O101" s="1"/>
-      <c r="R101" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D102" s="3">
         <v>0.37698999999999999</v>
@@ -5424,19 +5221,17 @@
         <v>1</v>
       </c>
       <c r="O102" s="1"/>
-      <c r="R102" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D103" s="3">
         <v>0.64539000000000002</v>
@@ -5463,19 +5258,17 @@
         <v>1</v>
       </c>
       <c r="O103" s="1"/>
-      <c r="R103" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D104" s="3">
         <v>0.10885</v>
@@ -5502,19 +5295,17 @@
         <v>1</v>
       </c>
       <c r="O104" s="1"/>
-      <c r="R104" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D105" s="3">
         <v>6.6499999999999997E-3</v>
@@ -5541,19 +5332,17 @@
         <v>1</v>
       </c>
       <c r="O105" s="1"/>
-      <c r="R105" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D106" s="3">
         <v>5.9029999999999999E-2</v>
@@ -5580,19 +5369,17 @@
         <v>1</v>
       </c>
       <c r="O106" s="1"/>
-      <c r="R106" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D107" s="3">
         <v>0.60167999999999999</v>
@@ -5619,19 +5406,17 @@
         <v>1</v>
       </c>
       <c r="O107" s="1"/>
-      <c r="R107" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D108" s="3">
         <v>0.71196000000000004</v>
@@ -5658,19 +5443,17 @@
         <v>1</v>
       </c>
       <c r="O108" s="1"/>
-      <c r="R108" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D109" s="3">
         <v>0.55406999999999995</v>
@@ -5697,19 +5480,17 @@
         <v>1</v>
       </c>
       <c r="O109" s="1"/>
-      <c r="R109" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D110" s="3">
         <v>0.81762000000000001</v>
@@ -5736,19 +5517,17 @@
         <v>1</v>
       </c>
       <c r="O110" s="1"/>
-      <c r="R110" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D111" s="3">
         <v>0.91129000000000004</v>
@@ -5775,19 +5554,17 @@
         <v>1</v>
       </c>
       <c r="O111" s="1"/>
-      <c r="R111" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D112" s="3">
         <v>5.0540000000000002E-2</v>
@@ -5814,19 +5591,17 @@
         <v>1</v>
       </c>
       <c r="O112" s="1"/>
-      <c r="R112" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D113" s="3">
         <v>0.70984999999999998</v>
@@ -5853,19 +5628,17 @@
         <v>1</v>
       </c>
       <c r="O113" s="1"/>
-      <c r="R113" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D114" s="3">
         <v>0.88671</v>
@@ -5892,19 +5665,17 @@
         <v>1</v>
       </c>
       <c r="O114" s="1"/>
-      <c r="R114" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D115" s="3">
         <v>0.41127999999999998</v>
@@ -5931,19 +5702,17 @@
         <v>1</v>
       </c>
       <c r="O115" s="1"/>
-      <c r="R115" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D116" s="3">
         <v>0.11287</v>
@@ -5970,19 +5739,17 @@
         <v>1</v>
       </c>
       <c r="O116" s="1"/>
-      <c r="R116" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D117" s="3">
         <v>0.11803</v>
@@ -6009,19 +5776,17 @@
         <v>1</v>
       </c>
       <c r="O117" s="1"/>
-      <c r="R117" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D118" s="3">
         <v>0.37475999999999998</v>
@@ -6048,19 +5813,17 @@
         <v>1</v>
       </c>
       <c r="O118" s="1"/>
-      <c r="R118" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D119" s="3">
         <v>0.39565</v>
@@ -6087,19 +5850,17 @@
         <v>1</v>
       </c>
       <c r="O119" s="1"/>
-      <c r="R119" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D120" s="3">
         <v>0.85729999999999995</v>
@@ -6126,19 +5887,17 @@
         <v>1</v>
       </c>
       <c r="O120" s="1"/>
-      <c r="R120" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" s="3">
         <v>0.25988</v>
@@ -6165,19 +5924,17 @@
         <v>1</v>
       </c>
       <c r="O121" s="1"/>
-      <c r="R121" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D122" s="3">
         <v>0.88117999999999996</v>
@@ -6204,19 +5961,17 @@
         <v>1</v>
       </c>
       <c r="O122" s="1"/>
-      <c r="R122" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D123" s="3">
         <v>8.0999999999999996E-4</v>
@@ -6243,19 +5998,17 @@
         <v>1</v>
       </c>
       <c r="O123" s="1"/>
-      <c r="R123" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D124" s="6">
         <v>1.0000000000000001E-5</v>
@@ -6282,19 +6035,17 @@
         <v>1</v>
       </c>
       <c r="O124" s="1"/>
-      <c r="R124" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D125" s="6">
         <v>2.0000000000000002E-5</v>
@@ -6321,19 +6072,17 @@
         <v>1</v>
       </c>
       <c r="O125" s="1"/>
-      <c r="R125" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D126" s="3">
         <v>1.14E-3</v>
@@ -6360,19 +6109,17 @@
         <v>1</v>
       </c>
       <c r="O126" s="1"/>
-      <c r="R126" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D127" s="3">
         <v>7.3319999999999996E-2</v>
@@ -6399,19 +6146,17 @@
         <v>1</v>
       </c>
       <c r="O127" s="1"/>
-      <c r="R127" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D128" s="3">
         <v>1.025E-2</v>
@@ -6438,19 +6183,17 @@
         <v>1</v>
       </c>
       <c r="O128" s="1"/>
-      <c r="R128" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D129" s="3">
         <v>0.60536000000000001</v>
@@ -6477,19 +6220,17 @@
         <v>0.53063640000000001</v>
       </c>
       <c r="O129" s="1"/>
-      <c r="R129" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D130" s="3">
         <v>0.72108000000000005</v>
@@ -6516,19 +6257,17 @@
         <v>0.60559961538461504</v>
       </c>
       <c r="O130" s="1"/>
-      <c r="R130" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D131" s="3">
         <v>0.82387999999999995</v>
@@ -6555,19 +6294,17 @@
         <v>1</v>
       </c>
       <c r="O131" s="1"/>
-      <c r="R131" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D132" s="3">
         <v>0.83508000000000004</v>
@@ -6594,19 +6331,17 @@
         <v>1</v>
       </c>
       <c r="O132" s="1"/>
-      <c r="R132" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D133" s="3">
         <v>0.23721</v>
@@ -6633,19 +6368,17 @@
         <v>1</v>
       </c>
       <c r="O133" s="1"/>
-      <c r="R133" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D134" s="3">
         <v>0.44635000000000002</v>
@@ -6672,19 +6405,17 @@
         <v>1</v>
       </c>
       <c r="O134" s="1"/>
-      <c r="R134" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D135" s="3">
         <v>3.0599999999999998E-3</v>
@@ -6711,19 +6442,17 @@
         <v>1</v>
       </c>
       <c r="O135" s="1"/>
-      <c r="R135" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D136" s="3">
         <v>9.7999999999999997E-4</v>
@@ -6750,19 +6479,17 @@
         <v>1</v>
       </c>
       <c r="O136" s="1"/>
-      <c r="R136" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D137" s="6">
         <v>4.0000000000000002E-4</v>
@@ -6789,19 +6516,17 @@
         <v>1</v>
       </c>
       <c r="O137" s="1"/>
-      <c r="R137" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="R137" s="1"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D138" s="3">
         <v>1.508E-2</v>
@@ -6828,19 +6553,17 @@
         <v>1</v>
       </c>
       <c r="O138" s="1"/>
-      <c r="R138" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D139" s="3">
         <v>1.142E-2</v>
@@ -6867,19 +6590,17 @@
         <v>1</v>
       </c>
       <c r="O139" s="1"/>
-      <c r="R139" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D140" s="6">
         <v>9.9999000009999908E-6</v>
@@ -6906,19 +6627,17 @@
         <v>1</v>
       </c>
       <c r="O140" s="1"/>
-      <c r="R140" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D141" s="6">
         <v>9.9999000009999908E-6</v>
@@ -6945,19 +6664,17 @@
         <v>1</v>
       </c>
       <c r="O141" s="1"/>
-      <c r="R141" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D142" s="3">
         <v>6.1700000000000001E-3</v>
@@ -6984,19 +6701,17 @@
         <v>1</v>
       </c>
       <c r="O142" s="1"/>
-      <c r="R142" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D143" s="3">
         <v>0.73936000000000002</v>
@@ -7023,19 +6738,17 @@
         <v>1</v>
       </c>
       <c r="O143" s="1"/>
-      <c r="R143" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D144" s="3">
         <v>0.30951000000000001</v>
@@ -7062,19 +6775,17 @@
         <v>1</v>
       </c>
       <c r="O144" s="1"/>
-      <c r="R144" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="R144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D145" s="3">
         <v>6.4820000000000003E-2</v>
@@ -7101,19 +6812,17 @@
         <v>1</v>
       </c>
       <c r="O145" s="1"/>
-      <c r="R145" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="R145" s="1"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D146" s="3">
         <v>0.70696999999999999</v>
@@ -7140,19 +6849,17 @@
         <v>1</v>
       </c>
       <c r="O146" s="1"/>
-      <c r="R146" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="R146" s="1"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D147" s="3">
         <v>0.75170999999999999</v>
@@ -7179,19 +6886,17 @@
         <v>1</v>
       </c>
       <c r="O147" s="1"/>
-      <c r="R147" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="R147" s="1"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D148" s="3">
         <v>0.51829999999999998</v>
@@ -7218,19 +6923,17 @@
         <v>1</v>
       </c>
       <c r="O148" s="1"/>
-      <c r="R148" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="R148" s="1"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D149" s="3">
         <v>0.49701000000000001</v>
@@ -7257,19 +6960,17 @@
         <v>1</v>
       </c>
       <c r="O149" s="1"/>
-      <c r="R149" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="R149" s="1"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D150" s="3">
         <v>6.9790000000000005E-2</v>
@@ -7296,19 +6997,17 @@
         <v>1</v>
       </c>
       <c r="O150" s="1"/>
-      <c r="R150" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="R150" s="1"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D151" s="3">
         <v>0.1108</v>
@@ -7335,19 +7034,17 @@
         <v>1</v>
       </c>
       <c r="O151" s="1"/>
-      <c r="R151" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="R151" s="1"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D152" s="3">
         <v>0.90980000000000005</v>
@@ -7374,19 +7071,17 @@
         <v>1</v>
       </c>
       <c r="O152" s="1"/>
-      <c r="R152" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="R152" s="1"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D153" s="3">
         <v>5.4400000000000004E-3</v>
@@ -7413,19 +7108,17 @@
         <v>1</v>
       </c>
       <c r="O153" s="1"/>
-      <c r="R153" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="R153" s="1"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D154" s="3">
         <v>5.7610000000000001E-2</v>
@@ -7452,19 +7145,17 @@
         <v>1</v>
       </c>
       <c r="O154" s="1"/>
-      <c r="R154" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="R154" s="1"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D155" s="3">
         <v>4.6530000000000002E-2</v>
@@ -7491,19 +7182,17 @@
         <v>1</v>
       </c>
       <c r="O155" s="1"/>
-      <c r="R155" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="R155" s="1"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D156" s="3">
         <v>1.3699999999999999E-3</v>
@@ -7530,19 +7219,17 @@
         <v>1</v>
       </c>
       <c r="O156" s="1"/>
-      <c r="R156" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="R156" s="1"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D157" s="3">
         <v>1.3999999999999999E-4</v>
@@ -7569,19 +7256,17 @@
         <v>1</v>
       </c>
       <c r="O157" s="1"/>
-      <c r="R157" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="R157" s="1"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D158" s="3">
         <v>1.1820000000000001E-2</v>
@@ -7608,19 +7293,17 @@
         <v>1</v>
       </c>
       <c r="O158" s="1"/>
-      <c r="R158" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="R158" s="1"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D159" s="3">
         <v>3.1690000000000003E-2</v>
@@ -7647,19 +7330,17 @@
         <v>1</v>
       </c>
       <c r="O159" s="1"/>
-      <c r="R159" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="R159" s="1"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D160" s="3">
         <v>4.3E-3</v>
@@ -7686,19 +7367,17 @@
         <v>1</v>
       </c>
       <c r="O160" s="1"/>
-      <c r="R160" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="R160" s="1"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D161" s="3">
         <v>6.8290000000000003E-2</v>
@@ -7725,19 +7404,17 @@
         <v>1</v>
       </c>
       <c r="O161" s="1"/>
-      <c r="R161" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="R161" s="1"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D162" s="3">
         <v>8.7359999999999993E-2</v>
@@ -7764,19 +7441,17 @@
         <v>1</v>
       </c>
       <c r="O162" s="1"/>
-      <c r="R162" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="R162" s="1"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D163" s="3">
         <v>0.20483999999999999</v>
@@ -7803,19 +7478,17 @@
         <v>1</v>
       </c>
       <c r="O163" s="1"/>
-      <c r="R163" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="R163" s="1"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D164" s="3">
         <v>7.7999999999999999E-4</v>
@@ -7842,19 +7515,17 @@
         <v>1</v>
       </c>
       <c r="O164" s="1"/>
-      <c r="R164" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="R164" s="1"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D165" s="3">
         <v>8.7929999999999994E-2</v>
@@ -7881,19 +7552,17 @@
         <v>1</v>
       </c>
       <c r="O165" s="1"/>
-      <c r="R165" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="R165" s="1"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D166" s="3">
         <v>0.59902999999999995</v>
@@ -7920,19 +7589,17 @@
         <v>1</v>
       </c>
       <c r="O166" s="1"/>
-      <c r="R166" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="R166" s="1"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D167" s="3">
         <v>0.34776000000000001</v>
@@ -7959,19 +7626,17 @@
         <v>1</v>
       </c>
       <c r="O167" s="1"/>
-      <c r="R167" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="R167" s="1"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D168" s="3">
         <v>0.35138999999999998</v>
@@ -7998,19 +7663,17 @@
         <v>1</v>
       </c>
       <c r="O168" s="1"/>
-      <c r="R168" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="R168" s="1"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D169" s="3">
         <v>0.13829</v>
@@ -8037,19 +7700,17 @@
         <v>1</v>
       </c>
       <c r="O169" s="1"/>
-      <c r="R169" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="R169" s="1"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D170" s="3">
         <v>0.63785999999999998</v>
@@ -8076,19 +7737,17 @@
         <v>1</v>
       </c>
       <c r="O170" s="1"/>
-      <c r="R170" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="R170" s="1"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D171" s="3">
         <v>0.93225000000000002</v>
@@ -8115,19 +7774,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O171" s="1"/>
-      <c r="R171" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="R171" s="1"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D172" s="3">
         <v>0.99428000000000005</v>
@@ -8154,19 +7811,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O172" s="1"/>
-      <c r="R172" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="R172" s="1"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D173" s="3">
         <v>0.98453000000000002</v>
@@ -8193,19 +7848,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O173" s="1"/>
-      <c r="R173" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="R173" s="1"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D174" s="3">
         <v>0.89707999999999999</v>
@@ -8232,19 +7885,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O174" s="1"/>
-      <c r="R174" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="R174" s="1"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D175" s="3">
         <v>0.88817999999999997</v>
@@ -8271,19 +7922,17 @@
         <v>0.21123</v>
       </c>
       <c r="O175" s="1"/>
-      <c r="R175" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="R175" s="1"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D176" s="3">
         <v>1</v>
@@ -8310,19 +7959,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O176" s="1"/>
-      <c r="R176" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="R176" s="1"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D177" s="3">
         <v>0.97616000000000003</v>
@@ -8349,19 +7996,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O177" s="1"/>
-      <c r="R177" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="R177" s="1"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D178" s="3">
         <v>0.99970000000000003</v>
@@ -8388,19 +8033,17 @@
         <v>1.323E-3</v>
       </c>
       <c r="O178" s="1"/>
-      <c r="R178" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="R178" s="1"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D179" s="3">
         <v>0.99909000000000003</v>
@@ -8427,19 +8070,17 @@
         <v>8.6940000000000003E-3</v>
       </c>
       <c r="O179" s="1"/>
-      <c r="R179" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="R179" s="1"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D180" s="3">
         <v>0.58775999999999995</v>
@@ -8466,19 +8107,17 @@
         <v>3.1984615384615402E-3</v>
       </c>
       <c r="O180" s="1"/>
-      <c r="R180" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="R180" s="1"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D181" s="3">
         <v>2.2000000000000001E-4</v>
@@ -8505,19 +8144,17 @@
         <v>1</v>
       </c>
       <c r="O181" s="1"/>
-      <c r="R181" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="R181" s="1"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D182" s="3">
         <v>2E-3</v>
@@ -8544,19 +8181,17 @@
         <v>1</v>
       </c>
       <c r="O182" s="1"/>
-      <c r="R182" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="R182" s="1"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D183" s="3">
         <v>7.5300000000000002E-3</v>
@@ -8583,19 +8218,17 @@
         <v>1</v>
       </c>
       <c r="O183" s="1"/>
-      <c r="R183" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="R183" s="1"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D184" s="3">
         <v>0.1241</v>
@@ -8622,19 +8255,17 @@
         <v>1</v>
       </c>
       <c r="O184" s="1"/>
-      <c r="R184" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="R184" s="1"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D185" s="3">
         <v>0.14521000000000001</v>
@@ -8661,19 +8292,17 @@
         <v>1</v>
       </c>
       <c r="O185" s="1"/>
-      <c r="R185" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="R185" s="1"/>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D186" s="3">
         <v>0.97631000000000001</v>
@@ -8700,19 +8329,17 @@
         <v>3.09272727272727E-3</v>
       </c>
       <c r="O186" s="1"/>
-      <c r="R186" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="R186" s="1"/>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D187" s="3">
         <v>0.99495</v>
@@ -8739,19 +8366,17 @@
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="O187" s="1"/>
-      <c r="R187" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="R187" s="1"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D188" s="3">
         <v>0.99190999999999996</v>
@@ -8778,19 +8403,17 @@
         <v>8.6400000000000001E-3</v>
       </c>
       <c r="O188" s="1"/>
-      <c r="R188" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="R188" s="1"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D189" s="3">
         <v>0.99804999999999999</v>
@@ -8817,19 +8440,17 @@
         <v>2.3625E-4</v>
       </c>
       <c r="O189" s="1"/>
-      <c r="R189" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="R189" s="1"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D190" s="3">
         <v>0.98482000000000003</v>
@@ -8856,19 +8477,17 @@
         <v>9.7484210526315798E-2</v>
       </c>
       <c r="O190" s="1"/>
-      <c r="R190" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="R190" s="1"/>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D191" s="3">
         <v>0.99904000000000004</v>
@@ -8895,16 +8514,14 @@
         <v>0.36043874999999997</v>
       </c>
       <c r="O191" s="1"/>
-      <c r="R191" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="R191" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G192 G234:G1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
